--- a/First semester/Introduction to IT/lab/Excel/bill.xlsx
+++ b/First semester/Introduction to IT/lab/Excel/bill.xlsx
@@ -15,66 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.0" hidden="1">Sheet1!$A$4:$B$13</definedName>
-    <definedName name="_xlchart.1" hidden="1">Sheet1!$C$3</definedName>
-    <definedName name="_xlchart.10" hidden="1">Sheet1!$G$4:$G$13</definedName>
-    <definedName name="_xlchart.11" hidden="1">Sheet1!$H$3</definedName>
-    <definedName name="_xlchart.12" hidden="1">Sheet1!$H$4:$H$13</definedName>
-    <definedName name="_xlchart.13" hidden="1">Sheet1!$I$3</definedName>
-    <definedName name="_xlchart.14" hidden="1">Sheet1!$I$4:$I$13</definedName>
-    <definedName name="_xlchart.15" hidden="1">Sheet1!$A$4:$B$13</definedName>
-    <definedName name="_xlchart.16" hidden="1">Sheet1!$C$3</definedName>
-    <definedName name="_xlchart.17" hidden="1">Sheet1!$C$4:$C$13</definedName>
-    <definedName name="_xlchart.18" hidden="1">Sheet1!$D$3</definedName>
-    <definedName name="_xlchart.19" hidden="1">Sheet1!$D$4:$D$13</definedName>
-    <definedName name="_xlchart.2" hidden="1">Sheet1!$C$4:$C$13</definedName>
-    <definedName name="_xlchart.20" hidden="1">Sheet1!$E$3</definedName>
-    <definedName name="_xlchart.21" hidden="1">Sheet1!$E$4:$E$13</definedName>
-    <definedName name="_xlchart.22" hidden="1">Sheet1!$F$3</definedName>
-    <definedName name="_xlchart.23" hidden="1">Sheet1!$F$4:$F$13</definedName>
-    <definedName name="_xlchart.24" hidden="1">Sheet1!$G$3</definedName>
-    <definedName name="_xlchart.25" hidden="1">Sheet1!$G$4:$G$13</definedName>
-    <definedName name="_xlchart.26" hidden="1">Sheet1!$H$3</definedName>
-    <definedName name="_xlchart.27" hidden="1">Sheet1!$H$4:$H$13</definedName>
-    <definedName name="_xlchart.28" hidden="1">Sheet1!$I$3</definedName>
-    <definedName name="_xlchart.29" hidden="1">Sheet1!$I$4:$I$13</definedName>
-    <definedName name="_xlchart.3" hidden="1">Sheet1!$D$3</definedName>
-    <definedName name="_xlchart.30" hidden="1">Sheet1!$A$4:$B$13</definedName>
-    <definedName name="_xlchart.31" hidden="1">Sheet1!$C$3</definedName>
-    <definedName name="_xlchart.32" hidden="1">Sheet1!$C$4:$C$13</definedName>
-    <definedName name="_xlchart.33" hidden="1">Sheet1!$D$3</definedName>
-    <definedName name="_xlchart.34" hidden="1">Sheet1!$D$4:$D$13</definedName>
-    <definedName name="_xlchart.35" hidden="1">Sheet1!$E$3</definedName>
-    <definedName name="_xlchart.36" hidden="1">Sheet1!$E$4:$E$13</definedName>
-    <definedName name="_xlchart.37" hidden="1">Sheet1!$F$3</definedName>
-    <definedName name="_xlchart.38" hidden="1">Sheet1!$F$4:$F$13</definedName>
-    <definedName name="_xlchart.39" hidden="1">Sheet1!$G$3</definedName>
-    <definedName name="_xlchart.4" hidden="1">Sheet1!$D$4:$D$13</definedName>
-    <definedName name="_xlchart.40" hidden="1">Sheet1!$G$4:$G$13</definedName>
-    <definedName name="_xlchart.41" hidden="1">Sheet1!$H$3</definedName>
-    <definedName name="_xlchart.42" hidden="1">Sheet1!$H$4:$H$13</definedName>
-    <definedName name="_xlchart.43" hidden="1">Sheet1!$I$3</definedName>
-    <definedName name="_xlchart.44" hidden="1">Sheet1!$I$4:$I$13</definedName>
-    <definedName name="_xlchart.45" hidden="1">Sheet1!$A$4:$B$13</definedName>
-    <definedName name="_xlchart.46" hidden="1">Sheet1!$C$3</definedName>
-    <definedName name="_xlchart.47" hidden="1">Sheet1!$C$4:$C$13</definedName>
-    <definedName name="_xlchart.48" hidden="1">Sheet1!$D$3</definedName>
-    <definedName name="_xlchart.49" hidden="1">Sheet1!$D$4:$D$13</definedName>
-    <definedName name="_xlchart.5" hidden="1">Sheet1!$E$3</definedName>
-    <definedName name="_xlchart.50" hidden="1">Sheet1!$E$3</definedName>
-    <definedName name="_xlchart.51" hidden="1">Sheet1!$E$4:$E$13</definedName>
-    <definedName name="_xlchart.52" hidden="1">Sheet1!$F$3</definedName>
-    <definedName name="_xlchart.53" hidden="1">Sheet1!$F$4:$F$13</definedName>
-    <definedName name="_xlchart.54" hidden="1">Sheet1!$G$3</definedName>
-    <definedName name="_xlchart.55" hidden="1">Sheet1!$G$4:$G$13</definedName>
-    <definedName name="_xlchart.56" hidden="1">Sheet1!$H$3</definedName>
-    <definedName name="_xlchart.57" hidden="1">Sheet1!$H$4:$H$13</definedName>
-    <definedName name="_xlchart.58" hidden="1">Sheet1!$I$3</definedName>
-    <definedName name="_xlchart.59" hidden="1">Sheet1!$I$4:$I$13</definedName>
-    <definedName name="_xlchart.6" hidden="1">Sheet1!$E$4:$E$13</definedName>
-    <definedName name="_xlchart.7" hidden="1">Sheet1!$F$3</definedName>
-    <definedName name="_xlchart.8" hidden="1">Sheet1!$F$4:$F$13</definedName>
-    <definedName name="_xlchart.9" hidden="1">Sheet1!$G$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$65</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -270,19 +210,7 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -295,6 +223,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,34 +434,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>57</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>192</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>194</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -776,34 +716,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>627000</c:v>
+                  <c:v>231000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1190400</c:v>
+                  <c:v>86800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8128000</c:v>
+                  <c:v>4800000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35400</c:v>
+                  <c:v>39900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14750</c:v>
+                  <c:v>23500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>720000</c:v>
+                  <c:v>1935000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>776000</c:v>
+                  <c:v>408000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>310000</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>301500</c:v>
+                  <c:v>351000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27500</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -917,34 +857,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>62700</c:v>
+                  <c:v>23100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>119040</c:v>
+                  <c:v>8680</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>812800</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1770</c:v>
+                  <c:v>1995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>295</c:v>
+                  <c:v>1175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72000</c:v>
+                  <c:v>193500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77600</c:v>
+                  <c:v>40800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31000</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30150</c:v>
+                  <c:v>35100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1375</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,34 +998,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>564300</c:v>
+                  <c:v>207900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1071360</c:v>
+                  <c:v>78120</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7315200</c:v>
+                  <c:v>4320000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33630</c:v>
+                  <c:v>37905</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14455</c:v>
+                  <c:v>22325</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>648000</c:v>
+                  <c:v>1741500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>698400</c:v>
+                  <c:v>367200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>279000</c:v>
+                  <c:v>324000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>271350</c:v>
+                  <c:v>315900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26125</c:v>
+                  <c:v>9800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,34 +1139,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>73359</c:v>
+                  <c:v>27027</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>139276.80000000002</c:v>
+                  <c:v>10155.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>950976</c:v>
+                  <c:v>561600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4371.9000000000005</c:v>
+                  <c:v>4927.6500000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1879.15</c:v>
+                  <c:v>2902.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84240</c:v>
+                  <c:v>226395</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90792</c:v>
+                  <c:v>47736</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36270</c:v>
+                  <c:v>42120</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35275.5</c:v>
+                  <c:v>41067</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3396.25</c:v>
+                  <c:v>1274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,34 +1282,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>637659</c:v>
+                  <c:v>234927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1210636.8</c:v>
+                  <c:v>88275.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8266176</c:v>
+                  <c:v>4881600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38001.9</c:v>
+                  <c:v>42832.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16334.15</c:v>
+                  <c:v>25227.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>732240</c:v>
+                  <c:v>1967895</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>789192</c:v>
+                  <c:v>414936</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>315270</c:v>
+                  <c:v>366120</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>306625.5</c:v>
+                  <c:v>356967</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29521.25</c:v>
+                  <c:v>11074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1654,6 +1594,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1669,6 +1614,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1684,6 +1634,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1699,6 +1654,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1714,6 +1674,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1729,6 +1694,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1746,6 +1716,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1763,6 +1738,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1780,6 +1760,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1797,6 +1782,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
@@ -1877,34 +1867,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>57</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>192</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>194</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1943,6 +1933,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1958,6 +1953,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1973,6 +1973,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1988,6 +1993,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2003,6 +2013,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2018,6 +2033,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2035,6 +2055,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2052,6 +2077,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2069,6 +2099,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -2086,6 +2121,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
@@ -2232,6 +2272,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2247,6 +2292,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2262,6 +2312,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2277,6 +2332,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2292,6 +2352,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2307,6 +2372,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2324,6 +2394,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2341,6 +2416,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2358,6 +2438,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -2375,6 +2460,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
@@ -2455,34 +2545,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>627000</c:v>
+                  <c:v>231000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1190400</c:v>
+                  <c:v>86800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8128000</c:v>
+                  <c:v>4800000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35400</c:v>
+                  <c:v>39900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14750</c:v>
+                  <c:v>23500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>720000</c:v>
+                  <c:v>1935000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>776000</c:v>
+                  <c:v>408000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>310000</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>301500</c:v>
+                  <c:v>351000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27500</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2521,6 +2611,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2536,6 +2631,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2551,6 +2651,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2566,6 +2671,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2581,6 +2691,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2596,6 +2711,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2613,6 +2733,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2630,6 +2755,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2647,6 +2777,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -2664,6 +2799,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
@@ -2744,34 +2884,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>62700</c:v>
+                  <c:v>23100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>119040</c:v>
+                  <c:v>8680</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>812800</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1770</c:v>
+                  <c:v>1995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>295</c:v>
+                  <c:v>1175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72000</c:v>
+                  <c:v>193500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77600</c:v>
+                  <c:v>40800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31000</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30150</c:v>
+                  <c:v>35100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1375</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2810,6 +2950,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2825,6 +2970,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2840,6 +2990,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000055-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2855,6 +3010,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000057-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2870,6 +3030,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000059-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2885,6 +3050,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005B-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2902,6 +3072,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005D-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2919,6 +3094,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005F-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2936,6 +3116,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000061-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -2953,6 +3138,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000063-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
@@ -3033,34 +3223,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>564300</c:v>
+                  <c:v>207900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1071360</c:v>
+                  <c:v>78120</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7315200</c:v>
+                  <c:v>4320000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33630</c:v>
+                  <c:v>37905</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14455</c:v>
+                  <c:v>22325</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>648000</c:v>
+                  <c:v>1741500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>698400</c:v>
+                  <c:v>367200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>279000</c:v>
+                  <c:v>324000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>271350</c:v>
+                  <c:v>315900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26125</c:v>
+                  <c:v>9800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3099,6 +3289,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000065-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3114,6 +3309,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000067-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3129,6 +3329,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000069-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3144,6 +3349,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006B-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3159,6 +3369,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006D-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3174,6 +3389,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006F-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -3191,6 +3411,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000071-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -3208,6 +3433,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000073-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -3225,6 +3455,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000075-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -3242,6 +3477,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000077-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
@@ -3322,34 +3562,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>73359</c:v>
+                  <c:v>27027</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>139276.80000000002</c:v>
+                  <c:v>10155.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>950976</c:v>
+                  <c:v>561600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4371.9000000000005</c:v>
+                  <c:v>4927.6500000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1879.15</c:v>
+                  <c:v>2902.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84240</c:v>
+                  <c:v>226395</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90792</c:v>
+                  <c:v>47736</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36270</c:v>
+                  <c:v>42120</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35275.5</c:v>
+                  <c:v>41067</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3396.25</c:v>
+                  <c:v>1274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3388,6 +3628,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000079-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3403,6 +3648,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007B-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3418,6 +3668,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007D-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3433,6 +3688,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007F-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3448,6 +3708,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000081-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3463,6 +3728,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000083-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -3480,6 +3750,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000085-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -3497,6 +3772,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000087-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -3514,6 +3794,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000089-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -3531,6 +3816,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008B-58AA-4F11-80B6-02F2A13671A9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
@@ -3611,34 +3901,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>637659</c:v>
+                  <c:v>234927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1210636.8</c:v>
+                  <c:v>88275.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8266176</c:v>
+                  <c:v>4881600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38001.9</c:v>
+                  <c:v>42832.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16334.15</c:v>
+                  <c:v>25227.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>732240</c:v>
+                  <c:v>1967895</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>789192</c:v>
+                  <c:v>414936</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>315270</c:v>
+                  <c:v>366120</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>306625.5</c:v>
+                  <c:v>356967</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29521.25</c:v>
+                  <c:v>11074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5469,564 +5759,564 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="22.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="4">
         <f ca="1">RANDBETWEEN(5,200)</f>
-        <v>57</v>
-      </c>
-      <c r="D4" s="8">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4">
         <v>11000</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
         <f ca="1">C4*D4</f>
-        <v>627000</v>
-      </c>
-      <c r="F4" s="8">
+        <v>231000</v>
+      </c>
+      <c r="F4" s="4">
         <f ca="1">IF(E4&lt;=20000, E4*2%, IF(E4&lt;=50000, E4*5%, IF(E4&lt;=80000, E4*8%, E4*10%)))</f>
-        <v>62700</v>
-      </c>
-      <c r="G4" s="8">
+        <v>23100</v>
+      </c>
+      <c r="G4" s="4">
         <f ca="1">E4-F4</f>
-        <v>564300</v>
-      </c>
-      <c r="H4" s="8">
+        <v>207900</v>
+      </c>
+      <c r="H4" s="4">
         <f ca="1">G4*13%</f>
-        <v>73359</v>
-      </c>
-      <c r="I4" s="8">
+        <v>27027</v>
+      </c>
+      <c r="I4" s="4">
         <f t="shared" ref="I4:I13" ca="1" si="0">G4+H4</f>
-        <v>637659</v>
+        <v>234927</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="4">
         <f t="shared" ref="C5:C13" ca="1" si="1">RANDBETWEEN(5,200)</f>
-        <v>192</v>
-      </c>
-      <c r="D5" s="8">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4">
         <v>6200</v>
       </c>
-      <c r="E5" s="8">
-        <f t="shared" ref="E4:E13" ca="1" si="2">C5*D5</f>
-        <v>1190400</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:E13" ca="1" si="2">C5*D5</f>
+        <v>86800</v>
+      </c>
+      <c r="F5" s="4">
         <f t="shared" ref="F5:F13" ca="1" si="3">IF(E5&lt;=20000, E5*2%, IF(E5&lt;=50000, E5*5%, IF(E5&lt;=80000, E5*8%, E5*10%)))</f>
-        <v>119040</v>
-      </c>
-      <c r="G5" s="8">
+        <v>8680</v>
+      </c>
+      <c r="G5" s="4">
         <f t="shared" ref="G5:G13" ca="1" si="4">E5-F5</f>
-        <v>1071360</v>
-      </c>
-      <c r="H5" s="8">
+        <v>78120</v>
+      </c>
+      <c r="H5" s="4">
         <f t="shared" ref="H5:H13" ca="1" si="5">G5*13%</f>
-        <v>139276.80000000002</v>
-      </c>
-      <c r="I5" s="8">
+        <v>10155.6</v>
+      </c>
+      <c r="I5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1210636.8</v>
+        <v>88275.6</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>127</v>
-      </c>
-      <c r="D6" s="8">
+        <v>75</v>
+      </c>
+      <c r="D6" s="4">
         <v>64000</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>8128000</v>
-      </c>
-      <c r="F6" s="8">
+        <v>4800000</v>
+      </c>
+      <c r="F6" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>812800</v>
-      </c>
-      <c r="G6" s="8">
+        <v>480000</v>
+      </c>
+      <c r="G6" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7315200</v>
-      </c>
-      <c r="H6" s="8">
+        <v>4320000</v>
+      </c>
+      <c r="H6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>950976</v>
-      </c>
-      <c r="I6" s="8">
+        <v>561600</v>
+      </c>
+      <c r="I6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>8266176</v>
+        <v>4881600</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
-      </c>
-      <c r="D7" s="8">
+        <v>133</v>
+      </c>
+      <c r="D7" s="4">
         <v>300</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>35400</v>
-      </c>
-      <c r="F7" s="8">
+        <v>39900</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1770</v>
-      </c>
-      <c r="G7" s="8">
+        <v>1995</v>
+      </c>
+      <c r="G7" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>33630</v>
-      </c>
-      <c r="H7" s="8">
+        <v>37905</v>
+      </c>
+      <c r="H7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>4371.9000000000005</v>
-      </c>
-      <c r="I7" s="8">
+        <v>4927.6500000000005</v>
+      </c>
+      <c r="I7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>38001.9</v>
+        <v>42832.65</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="D8" s="8">
+        <v>94</v>
+      </c>
+      <c r="D8" s="4">
         <v>250</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>14750</v>
-      </c>
-      <c r="F8" s="8">
+        <v>23500</v>
+      </c>
+      <c r="F8" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>295</v>
-      </c>
-      <c r="G8" s="8">
+        <v>1175</v>
+      </c>
+      <c r="G8" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>14455</v>
-      </c>
-      <c r="H8" s="8">
+        <v>22325</v>
+      </c>
+      <c r="H8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>1879.15</v>
-      </c>
-      <c r="I8" s="8">
+        <v>2902.25</v>
+      </c>
+      <c r="I8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>16334.15</v>
+        <v>25227.25</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="D9" s="8">
+        <v>129</v>
+      </c>
+      <c r="D9" s="4">
         <v>15000</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>720000</v>
-      </c>
-      <c r="F9" s="8">
+        <v>1935000</v>
+      </c>
+      <c r="F9" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>72000</v>
-      </c>
-      <c r="G9" s="8">
+        <v>193500</v>
+      </c>
+      <c r="G9" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>648000</v>
-      </c>
-      <c r="H9" s="8">
+        <v>1741500</v>
+      </c>
+      <c r="H9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>84240</v>
-      </c>
-      <c r="I9" s="8">
+        <v>226395</v>
+      </c>
+      <c r="I9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>732240</v>
+        <v>1967895</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>194</v>
-      </c>
-      <c r="D10" s="8">
+        <v>102</v>
+      </c>
+      <c r="D10" s="4">
         <v>4000</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>776000</v>
-      </c>
-      <c r="F10" s="8">
+        <v>408000</v>
+      </c>
+      <c r="F10" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>77600</v>
-      </c>
-      <c r="G10" s="8">
+        <v>40800</v>
+      </c>
+      <c r="G10" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>698400</v>
-      </c>
-      <c r="H10" s="8">
+        <v>367200</v>
+      </c>
+      <c r="H10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>90792</v>
-      </c>
-      <c r="I10" s="8">
+        <v>47736</v>
+      </c>
+      <c r="I10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>789192</v>
+        <v>414936</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="D11" s="8">
+        <v>72</v>
+      </c>
+      <c r="D11" s="4">
         <v>5000</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>310000</v>
-      </c>
-      <c r="F11" s="8">
+        <v>360000</v>
+      </c>
+      <c r="F11" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>31000</v>
-      </c>
-      <c r="G11" s="8">
+        <v>36000</v>
+      </c>
+      <c r="G11" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>279000</v>
-      </c>
-      <c r="H11" s="8">
+        <v>324000</v>
+      </c>
+      <c r="H11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>36270</v>
-      </c>
-      <c r="I11" s="8">
+        <v>42120</v>
+      </c>
+      <c r="I11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>315270</v>
+        <v>366120</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="D12" s="8">
+        <v>78</v>
+      </c>
+      <c r="D12" s="4">
         <v>4500</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>301500</v>
-      </c>
-      <c r="F12" s="8">
+        <v>351000</v>
+      </c>
+      <c r="F12" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>30150</v>
-      </c>
-      <c r="G12" s="8">
+        <v>35100</v>
+      </c>
+      <c r="G12" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>271350</v>
-      </c>
-      <c r="H12" s="8">
+        <v>315900</v>
+      </c>
+      <c r="H12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>35275.5</v>
-      </c>
-      <c r="I12" s="8">
+        <v>41067</v>
+      </c>
+      <c r="I12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>306625.5</v>
+        <v>356967</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="D13" s="8">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4">
         <v>500</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>27500</v>
-      </c>
-      <c r="F13" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F13" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1375</v>
-      </c>
-      <c r="G13" s="8">
+        <v>200</v>
+      </c>
+      <c r="G13" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>26125</v>
-      </c>
-      <c r="H13" s="8">
+        <v>9800</v>
+      </c>
+      <c r="H13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>3396.25</v>
-      </c>
-      <c r="I13" s="8">
+        <v>1274</v>
+      </c>
+      <c r="I13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>29521.25</v>
+        <v>11074</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
